--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c062dfeea7cbf457/Desktop/bulk-email-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{88B2E589-55F3-4284-AE2A-D837E31B9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754BA3A5-7AD4-44B8-A8EE-894BF5B917DE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{88B2E589-55F3-4284-AE2A-D837E31B9A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8797F3F5-D9EA-4C14-A318-BB189D504F8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65AC5C6E-6A2B-420C-A186-E8DD2D158EE4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Vishal Super Mart</t>
   </si>
   <si>
-    <t>mih.kul.per@gmail.com</t>
+    <t>mih.kul.stu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,11 +470,23 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{810C06FA-1FF2-4DF7-A67B-1B152D26F786}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{80FD493B-1868-485B-8C45-BBAD28BFEACA}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D00AC8D4-B658-46E5-B3BF-65E1E1DDF436}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
